--- a/TAPES.xlsx
+++ b/TAPES.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8876261F-C5DC-44A8-9FD0-50BA8B26EA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F88C84B-B814-42EA-BA9F-F02272466970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
@@ -21,13 +21,14 @@
     <sheet name="TCA" sheetId="5" r:id="rId6"/>
     <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
+    <sheet name="DGC" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="359">
   <si>
     <t>COMARCA</t>
   </si>
@@ -1093,6 +1094,18 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>Luciana</t>
+  </si>
+  <si>
+    <t>Dificuldade de contato</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1116,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1156,6 +1169,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1170,7 +1196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1205,6 +1231,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF4C7C3"/>
         <bgColor rgb="FFF4C7C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1277,9 +1309,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1367,12 +1399,16 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{C648DDB6-3D29-4758-891D-C01E818C9784}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{4C12309A-633C-434D-A9A4-E3D8AEC6A9E3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1402,10 +1438,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED3E295-0D9A-4E95-8D04-654A787E86D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6E3BAB-D46C-4725-8A76-6E4ED38467BE}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,7 +1479,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77FB1DD4-7558-42C5-B4E9-CBD8383E64F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B40D62-2513-4D16-BAF1-6A90E45CE594}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1506,7 +1542,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1D42B6-644D-4A5E-BE70-5149AFE555F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A65450-6F0C-4E82-98E0-65B81121F5EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1525,7 +1561,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0F74FD-5487-FB2D-93A0-F328AB9FAC19}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91AB9F18-3BDB-966E-425A-DADDB3A2067C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1574,7 +1610,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C947B5C-E666-F80E-F9EC-DBF9C3FE5091}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE2A1BC-8B09-DB07-6047-7A6AA06C8CA1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1593,7 +1629,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7EAA50-AE4B-C4AF-4ED8-5B0CD36D85BF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14168888-4CE7-0FD8-BFB5-17450A032BE1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1624,7 +1660,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{070ED59C-0718-BD86-7762-612BF896E75E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A7E499C-6724-0D23-AE65-E7AB8D16B003}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1655,7 +1691,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC1C29E-1295-3919-0DAD-D23FF26E56EE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{785A8D41-69E6-AEE8-C0CB-292282A04F8C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1698,7 +1734,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210417A4-66C4-48FD-A423-F3CF204B2E3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E808D86-10DB-41C8-A318-87DC8B885BD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1736,7 +1772,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C3C6A0-9107-4521-97CE-3DAC9023BB11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4712F2AE-F86B-46BD-A852-A4452CBD798E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1779,7 +1815,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC52638D-2804-409F-8C83-7DE37D8F0E87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{117F659B-46B9-47D8-8E0A-26C90BEE0C96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47815457-41A3-4340-814C-DC7379382410}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60A9770-69D8-4A1B-8D35-09098AD0FA23}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2104,98 +2140,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="36"/>
-    <col min="6" max="6" width="2" style="36" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="36"/>
+    <col min="1" max="5" width="12.5703125" style="38"/>
+    <col min="6" max="6" width="2" style="38" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="38" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="35"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="35"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="35"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="35"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="35"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="35"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="35"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="35"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="35"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="35"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="35"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="35"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="35"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="35"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="35"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="35"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="35"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="35"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="35"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="35"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="35"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="35"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="35"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="35"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="35"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="35"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="35"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="35"/>
+      <c r="F28" s="37"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="35"/>
+      <c r="F29" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7732,4 +7768,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/TAPES.xlsx
+++ b/TAPES.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F88C84B-B814-42EA-BA9F-F02272466970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{193307EF-A784-44E8-8B4C-ED8E9A45A9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="TCA" sheetId="5" r:id="rId6"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
-    <sheet name="DGC" sheetId="8" r:id="rId9"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="6" r:id="rId7"/>
+    <sheet name="DGC" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="357">
   <si>
     <t>COMARCA</t>
   </si>
@@ -1088,12 +1087,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
   <si>
     <t>TEMÁTICA</t>
@@ -1311,7 +1304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1384,21 +1377,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1408,7 +1386,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{4C12309A-633C-434D-A9A4-E3D8AEC6A9E3}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{EEC234D9-1EEA-4170-B601-E67B7BFD96DA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1438,10 +1416,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6E3BAB-D46C-4725-8A76-6E4ED38467BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6D1C28-D9A9-4007-83D8-8D9BDF29B6FC}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,7 +1457,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B40D62-2513-4D16-BAF1-6A90E45CE594}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10BB14A4-53B1-4BCF-83FF-9F1725EF7ADC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1520,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A65450-6F0C-4E82-98E0-65B81121F5EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E79DCCE6-5C35-49B4-949D-25804861C536}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,7 +1539,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91AB9F18-3BDB-966E-425A-DADDB3A2067C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF0AEC0-4418-63F4-B4C8-F44B27EC2D7B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1610,7 +1588,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE2A1BC-8B09-DB07-6047-7A6AA06C8CA1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65463D6-C094-9CE2-8DF4-218DDEDE1D2B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1629,7 +1607,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14168888-4CE7-0FD8-BFB5-17450A032BE1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253984CF-29B9-730C-7880-0B2A5F456D6B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1660,7 +1638,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A7E499C-6724-0D23-AE65-E7AB8D16B003}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1100B2F-3E4B-2CC3-9A2A-0225EA0D44A0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1691,7 +1669,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{785A8D41-69E6-AEE8-C0CB-292282A04F8C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46C2D82-9016-D9DE-F72D-EAB08250331B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1734,7 +1712,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E808D86-10DB-41C8-A318-87DC8B885BD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{854ECDFB-EE88-4BC6-BBF8-C2526C3095C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1772,7 +1750,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4712F2AE-F86B-46BD-A852-A4452CBD798E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{878DB7E5-BCF6-4A7A-9E40-C0B57A5A4BDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1815,7 +1793,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{117F659B-46B9-47D8-8E0A-26C90BEE0C96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA81BA2-0634-4697-BF28-51F08ADBE050}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,7 +2106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60A9770-69D8-4A1B-8D35-09098AD0FA23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4680A14-D211-45C7-A2AC-34A45C487A72}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2140,98 +2118,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="38"/>
-    <col min="6" max="6" width="2" style="38" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="38" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="38"/>
+    <col min="1" max="5" width="12.5703125" style="33"/>
+    <col min="6" max="6" width="2" style="33" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="37"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="37"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="37"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="37"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="37"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="37"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="37"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="37"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="37"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="37"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="37"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="37"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="37"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="37"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="37"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="37"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="37"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="37"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="37"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="37"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="37"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="37"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="37"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="37"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="37"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="37"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="37"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="37"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="37"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7724,54 +7702,6 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="E1" s="31">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="B2" s="34">
-        <v>8</v>
-      </c>
-      <c r="C2" s="32">
-        <v>5.2903055151434992E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7784,25 +7714,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>356</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/TAPES.xlsx
+++ b/TAPES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{193307EF-A784-44E8-8B4C-ED8E9A45A9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EC2A955-267F-4BF1-8F3A-FC25AAF960D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1386,7 +1386,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{EEC234D9-1EEA-4170-B601-E67B7BFD96DA}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{5C8FEFB0-8134-4CD5-BA21-38F886178A01}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1416,10 +1416,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6D1C28-D9A9-4007-83D8-8D9BDF29B6FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED7449E1-944A-4667-8655-DF7BB3BA4642}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,7 +1457,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10BB14A4-53B1-4BCF-83FF-9F1725EF7ADC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71E62A83-B874-477B-A080-2FB1C2F359FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,7 +1520,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E79DCCE6-5C35-49B4-949D-25804861C536}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A85C1F-F28C-42DB-8DE8-C06E84D84947}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,7 +1539,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF0AEC0-4418-63F4-B4C8-F44B27EC2D7B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6592FD1-85A0-B2BE-30FF-48EB61747ABB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1588,7 +1588,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65463D6-C094-9CE2-8DF4-218DDEDE1D2B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED7188D-4FA0-6254-7028-234C76A406F9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1607,7 +1607,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253984CF-29B9-730C-7880-0B2A5F456D6B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D5DABE-DF9A-E47C-12E3-6F7F3210D393}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1638,7 +1638,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1100B2F-3E4B-2CC3-9A2A-0225EA0D44A0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0711BD1-1B7C-CB16-1FA7-F56410085E92}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1669,7 +1669,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46C2D82-9016-D9DE-F72D-EAB08250331B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA943ADD-F515-7CB5-4C86-35AC8FA01053}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1712,7 +1712,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{854ECDFB-EE88-4BC6-BBF8-C2526C3095C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD50F0A9-6299-43C1-A18F-891724A0FAE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1750,7 +1750,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{878DB7E5-BCF6-4A7A-9E40-C0B57A5A4BDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC588F89-A479-47C6-A1B7-2FC3ADA1506C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,50 +1775,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA81BA2-0634-4697-BF28-51F08ADBE050}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2106,7 +2062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4680A14-D211-45C7-A2AC-34A45C487A72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CCFDE3-25BA-4BEA-ADB7-D55A9BAE7C4F}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
